--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Nhiệm vụ</t>
   </si>
@@ -37,40 +37,46 @@
     <t xml:space="preserve">Ghi chú</t>
   </si>
   <si>
-    <t xml:space="preserve">Vẽ biểu đồ usecase</t>
+    <t xml:space="preserve">Khảo sát trải nghiệm thực tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Đức Thắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng app của Sapo và các công ty khác để rút ra ưu điểm và nhược điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khảo sát khó khăn khi quản lý kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vẽ biểu đồ luồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu đồ luồng cho nhân viên điều phối</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Tiến Vũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng BPNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu đồ luồng cho nhân viên kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Quốc Thắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu đồ luồng cho thủ kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Trung Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế bản prototype màn hình các trang</t>
   </si>
   <si>
     <t xml:space="preserve">Không</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Trung Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vẽ biểu đồ luồng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biểu đồ luồng cho nhân viên điều phối</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đinh Tiến Vũ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng BPNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biểu đồ luồng cho nhân viên kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà Quốc Thắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biểu đồ luồng cho thủ kho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiết kế bản prototype màn hình các trang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Đức Thắng</t>
   </si>
   <si>
     <t xml:space="preserve">Sử dụng figma</t>
@@ -177,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +193,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,19 +237,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -260,123 +270,130 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>44539.8333333333</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>44540.3333333333</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>44540.3333333333</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>44540.3333333333</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>44541.4166666667</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>44541.4166666667</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>44543.5833333333</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>44543.5833333333</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4" t="n">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="n">
         <v>44553.4166666667</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
